--- a/src/main/webapp/template/import/场景表（电视剧）.xlsx
+++ b/src/main/webapp/template/import/场景表（电视剧）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>《剧本名称》场景表</t>
   </si>
@@ -102,12 +102,6 @@
     <t>拍摄状态</t>
   </si>
   <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>特殊提示</t>
-  </si>
-  <si>
     <t>夜</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>玄武门</t>
   </si>
   <si>
-    <t>这里是主要内容</t>
-  </si>
-  <si>
     <t>必须为数字</t>
   </si>
   <si>
@@ -136,6 +127,22 @@
   </si>
   <si>
     <t>多个特殊道具以空格或，或、隔开</t>
+  </si>
+  <si>
+    <t>文武特效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -143,7 +150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -280,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,7 +336,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,11 +348,14 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,7 +708,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,7 +723,8 @@
     <col min="13" max="13" width="10.625" style="6" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="6" customWidth="1"/>
     <col min="15" max="15" width="5.375" style="6" customWidth="1"/>
-    <col min="16" max="20" width="26.625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="34.625" style="8" customWidth="1"/>
+    <col min="17" max="20" width="26.625" style="8" customWidth="1"/>
     <col min="21" max="21" width="30.625" style="8" customWidth="1"/>
     <col min="22" max="22" width="21.625" style="8" customWidth="1"/>
     <col min="23" max="23" width="14.125" style="8" customWidth="1"/>
@@ -722,38 +733,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -830,20 +841,20 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>7</v>
@@ -855,10 +866,10 @@
         <v>9</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>12</v>
@@ -873,34 +884,34 @@
         <v>15</v>
       </c>
       <c r="P3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="V3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="X3" s="21">
+        <v>42964</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
